--- a/biology/Microbiologie/Acidothermales/Acidothermales.xlsx
+++ b/biology/Microbiologie/Acidothermales/Acidothermales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acidothermales forment un ordre de bactéries gram variables du phylum des Actinomycetota et présentes dans les sources d'eaux chaudes.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre est composé de bactéries thermophiles et acidophiles. Ce sont des bactéries capables dégrader la cellulose notamment avec une système composé de trois types d'enzymes (endoglucanases, CBH et β-D glycolases)[1].
-Le genre type de cet ordre, Acidothermus et son espèce type Acidothermus cellulolyticus est composé de bactéries à coloration de Gram variable[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est composé de bactéries thermophiles et acidophiles. Ce sont des bactéries capables dégrader la cellulose notamment avec une système composé de trois types d'enzymes (endoglucanases, CBH et β-D glycolases).
+Le genre type de cet ordre, Acidothermus et son espèce type Acidothermus cellulolyticus est composé de bactéries à coloration de Gram variable.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces bactéries sont présentes dans les sources d'eaux chaudes[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces bactéries sont présentes dans les sources d'eaux chaudes
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (28 octobre 2023)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (28 octobre 2023) :
 Acidothermaceae Rainey et al. 1997</t>
         </is>
       </c>
@@ -605,12 +623,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Acidothermales Sen et al. 2014[4].
-Le genre type est : Acidothermus Mohagheghi et al. 1986[4].
-Étymologie
-L'étymologie de cet ordre est la suivante : Aci.do.therm.a’les. N.L. masc. n. Acidothermus, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Acidothermales, l'ordre des Acidothermus[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Acidothermales Sen et al. 2014.
+Le genre type est : Acidothermus Mohagheghi et al. 1986.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acidothermales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidothermales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cet ordre est la suivante : Aci.do.therm.a’les. N.L. masc. n. Acidothermus, genre type de l'ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Acidothermales, l'ordre des Acidothermus.
 </t>
         </is>
       </c>
